--- a/CalculateFunding.Services.Datasets.UnitTests/TestItems/PE_and_Sports_Grant_Data_AsNull_v1.xlsx
+++ b/CalculateFunding.Services.Datasets.UnitTests/TestItems/PE_and_Sports_Grant_Data_AsNull_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CFS\CalculateFunding-Backend\CalculateFunding.Services.Datasets.UnitTests\TestItems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\sinem\CalculateFunding-Backend\CalculateFunding.Services.Datasets.UnitTests\TestItems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A96903-5CFA-4DDE-A7BC-255BF56F6FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EC837-616C-43CA-A448-E9014894E7B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PE and Sport Grant" sheetId="1" r:id="rId1"/>
@@ -1084,21 +1084,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="9.15625" customWidth="1"/>
-    <col min="4" max="4" width="9.47265625" customWidth="1"/>
-    <col min="5" max="5" width="9.15625" customWidth="1"/>
-    <col min="6" max="6" width="13.15625" customWidth="1"/>
-    <col min="7" max="7" width="11.7890625" customWidth="1"/>
-    <col min="8" max="8" width="18.47265625" customWidth="1"/>
-    <col min="9" max="14" width="58.47265625" customWidth="1"/>
-    <col min="15" max="20" width="42.5234375" customWidth="1"/>
-    <col min="21" max="21" width="71.62890625" customWidth="1"/>
+    <col min="1" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="14" width="58.453125" customWidth="1"/>
+    <col min="15" max="20" width="42.54296875" customWidth="1"/>
+    <col min="21" max="21" width="71.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -7026,7 +7026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7074,12 +7074,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE0AC5845F35354892F05EDE768EB9E5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d375a77fa2fd4b2207d063e1087e0e03">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ab119141-cd66-4087-86bb-8e659032e627" xmlns:ns4="7e3e27cc-3a1c-477d-aac6-02b314d79f5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9138eea122a2c6552d076ac3e67eb0bd" ns3:_="" ns4:_="">
     <xsd:import namespace="ab119141-cd66-4087-86bb-8e659032e627"/>
@@ -7288,6 +7282,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7298,23 +7298,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA5BD8A6-8524-4FB3-BADC-0E49138F02CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7e3e27cc-3a1c-477d-aac6-02b314d79f5e"/>
-    <ds:schemaRef ds:uri="ab119141-cd66-4087-86bb-8e659032e627"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EFB9A9-C8EA-4DA5-9074-16F4DCC7EB28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7333,6 +7316,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA5BD8A6-8524-4FB3-BADC-0E49138F02CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7e3e27cc-3a1c-477d-aac6-02b314d79f5e"/>
+    <ds:schemaRef ds:uri="ab119141-cd66-4087-86bb-8e659032e627"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{893FC4BE-952F-4B77-A17C-02E1E16AD86B}">
   <ds:schemaRefs>
